--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mdk-Ptprz1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mdk-Ptprz1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.324023666666666</v>
+        <v>2.180165333333334</v>
       </c>
       <c r="H2">
-        <v>3.972071</v>
+        <v>6.540496</v>
       </c>
       <c r="I2">
-        <v>0.01518042398701374</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="J2">
-        <v>0.01518042398701373</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.09677100000000001</v>
+        <v>0.138766</v>
       </c>
       <c r="N2">
-        <v>0.290313</v>
+        <v>0.416298</v>
       </c>
       <c r="O2">
-        <v>0.02354936372111632</v>
+        <v>0.01356925767068476</v>
       </c>
       <c r="P2">
-        <v>0.02354936372111632</v>
+        <v>0.01356925767068476</v>
       </c>
       <c r="Q2">
-        <v>0.128127094247</v>
+        <v>0.3025328226453334</v>
       </c>
       <c r="R2">
-        <v>1.153143848223</v>
+        <v>2.722795403808</v>
       </c>
       <c r="S2">
-        <v>0.0003574893259109452</v>
+        <v>0.0002673876489951054</v>
       </c>
       <c r="T2">
-        <v>0.0003574893259109452</v>
+        <v>0.0002673876489951055</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.324023666666666</v>
+        <v>2.180165333333334</v>
       </c>
       <c r="H3">
-        <v>3.972071</v>
+        <v>6.540496</v>
       </c>
       <c r="I3">
-        <v>0.01518042398701374</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="J3">
-        <v>0.01518042398701373</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>0.162484</v>
       </c>
       <c r="O3">
-        <v>0.01318023931019921</v>
+        <v>0.00529617548814441</v>
       </c>
       <c r="P3">
-        <v>0.01318023931019921</v>
+        <v>0.005296175488144411</v>
       </c>
       <c r="Q3">
-        <v>0.07171088715155555</v>
+        <v>0.1180806613404445</v>
       </c>
       <c r="R3">
-        <v>0.6453979843639999</v>
+        <v>1.062725952064</v>
       </c>
       <c r="S3">
-        <v>0.0002000816209791295</v>
+        <v>0.0001043632560313062</v>
       </c>
       <c r="T3">
-        <v>0.0002000816209791294</v>
+        <v>0.0001043632560313062</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.324023666666666</v>
+        <v>2.180165333333334</v>
       </c>
       <c r="H4">
-        <v>3.972071</v>
+        <v>6.540496</v>
       </c>
       <c r="I4">
-        <v>0.01518042398701374</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="J4">
-        <v>0.01518042398701373</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.958350666666666</v>
+        <v>10.002366</v>
       </c>
       <c r="N4">
-        <v>11.875052</v>
+        <v>30.007098</v>
       </c>
       <c r="O4">
-        <v>0.9632703969686844</v>
+        <v>0.9780831152479456</v>
       </c>
       <c r="P4">
-        <v>0.9632703969686844</v>
+        <v>0.9780831152479456</v>
       </c>
       <c r="Q4">
-        <v>5.240949963632443</v>
+        <v>21.806811604512</v>
       </c>
       <c r="R4">
-        <v>47.16854967269199</v>
+        <v>196.261304440608</v>
       </c>
       <c r="S4">
-        <v>0.01462285304012366</v>
+        <v>0.01927351893928323</v>
       </c>
       <c r="T4">
-        <v>0.01462285304012366</v>
+        <v>0.01927351893928323</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>81.17653533333333</v>
+        <v>2.180165333333334</v>
       </c>
       <c r="H5">
-        <v>243.529606</v>
+        <v>6.540496</v>
       </c>
       <c r="I5">
-        <v>0.9307191821270077</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="J5">
-        <v>0.9307191821270073</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.09677100000000001</v>
+        <v>0.03120566666666667</v>
       </c>
       <c r="N5">
-        <v>0.290313</v>
+        <v>0.09361700000000001</v>
       </c>
       <c r="O5">
-        <v>0.02354936372111632</v>
+        <v>0.003051451593225274</v>
       </c>
       <c r="P5">
-        <v>0.02354936372111632</v>
+        <v>0.003051451593225274</v>
       </c>
       <c r="Q5">
-        <v>7.855534500742001</v>
+        <v>0.06803351267022223</v>
       </c>
       <c r="R5">
-        <v>70.69981050667801</v>
+        <v>0.612301614032</v>
       </c>
       <c r="S5">
-        <v>0.0219178445421288</v>
+        <v>6.013007397579327E-05</v>
       </c>
       <c r="T5">
-        <v>0.0219178445421288</v>
+        <v>6.013007397579327E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,10 +791,10 @@
         <v>243.529606</v>
       </c>
       <c r="I6">
-        <v>0.9307191821270077</v>
+        <v>0.733713204346044</v>
       </c>
       <c r="J6">
-        <v>0.9307191821270073</v>
+        <v>0.7337132043460441</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.05416133333333333</v>
+        <v>0.138766</v>
       </c>
       <c r="N6">
-        <v>0.162484</v>
+        <v>0.416298</v>
       </c>
       <c r="O6">
-        <v>0.01318023931019921</v>
+        <v>0.01356925767068476</v>
       </c>
       <c r="P6">
-        <v>0.01318023931019921</v>
+        <v>0.01356925767068476</v>
       </c>
       <c r="Q6">
-        <v>4.396629389033778</v>
+        <v>11.26454310206533</v>
       </c>
       <c r="R6">
-        <v>39.569664501304</v>
+        <v>101.380887918588</v>
       </c>
       <c r="S6">
-        <v>0.01226710155102684</v>
+        <v>0.009955943526155251</v>
       </c>
       <c r="T6">
-        <v>0.01226710155102684</v>
+        <v>0.009955943526155253</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,45 +853,45 @@
         <v>243.529606</v>
       </c>
       <c r="I7">
-        <v>0.9307191821270077</v>
+        <v>0.733713204346044</v>
       </c>
       <c r="J7">
-        <v>0.9307191821270073</v>
+        <v>0.7337132043460441</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>3.958350666666666</v>
+        <v>0.05416133333333333</v>
       </c>
       <c r="N7">
-        <v>11.875052</v>
+        <v>0.162484</v>
       </c>
       <c r="O7">
-        <v>0.9632703969686844</v>
+        <v>0.00529617548814441</v>
       </c>
       <c r="P7">
-        <v>0.9632703969686844</v>
+        <v>0.005296175488144411</v>
       </c>
       <c r="Q7">
-        <v>321.3251927543902</v>
+        <v>4.396629389033778</v>
       </c>
       <c r="R7">
-        <v>2891.926734789512</v>
+        <v>39.569664501304</v>
       </c>
       <c r="S7">
-        <v>0.896534236033852</v>
+        <v>0.00388587388818541</v>
       </c>
       <c r="T7">
-        <v>0.8965342360338516</v>
+        <v>0.00388587388818541</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.525915333333334</v>
+        <v>81.17653533333333</v>
       </c>
       <c r="H8">
-        <v>10.577746</v>
+        <v>243.529606</v>
       </c>
       <c r="I8">
-        <v>0.04042593123510095</v>
+        <v>0.733713204346044</v>
       </c>
       <c r="J8">
-        <v>0.04042593123510094</v>
+        <v>0.7337132043460441</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.09677100000000001</v>
+        <v>10.002366</v>
       </c>
       <c r="N8">
-        <v>0.290313</v>
+        <v>30.007098</v>
       </c>
       <c r="O8">
-        <v>0.02354936372111632</v>
+        <v>0.9780831152479456</v>
       </c>
       <c r="P8">
-        <v>0.02354936372111632</v>
+        <v>0.9780831152479456</v>
       </c>
       <c r="Q8">
-        <v>0.3412063527220001</v>
+        <v>811.957417015932</v>
       </c>
       <c r="R8">
-        <v>3.070857174498001</v>
+        <v>7307.616753143388</v>
       </c>
       <c r="S8">
-        <v>0.0009520049584202292</v>
+        <v>0.7176324966053312</v>
       </c>
       <c r="T8">
-        <v>0.0009520049584202289</v>
+        <v>0.7176324966053313</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.525915333333334</v>
+        <v>81.17653533333333</v>
       </c>
       <c r="H9">
-        <v>10.577746</v>
+        <v>243.529606</v>
       </c>
       <c r="I9">
-        <v>0.04042593123510095</v>
+        <v>0.733713204346044</v>
       </c>
       <c r="J9">
-        <v>0.04042593123510094</v>
+        <v>0.7337132043460441</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.05416133333333333</v>
+        <v>0.03120566666666667</v>
       </c>
       <c r="N9">
-        <v>0.162484</v>
+        <v>0.09361700000000001</v>
       </c>
       <c r="O9">
-        <v>0.01318023931019921</v>
+        <v>0.003051451593225274</v>
       </c>
       <c r="P9">
-        <v>0.01318023931019921</v>
+        <v>0.003051451593225274</v>
       </c>
       <c r="Q9">
-        <v>0.1909682756737778</v>
+        <v>2.533167902766889</v>
       </c>
       <c r="R9">
-        <v>1.718714481064</v>
+        <v>22.798511124902</v>
       </c>
       <c r="S9">
-        <v>0.0005328234480162877</v>
+        <v>0.002238890326372157</v>
       </c>
       <c r="T9">
-        <v>0.0005328234480162873</v>
+        <v>0.002238890326372157</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,51 +1033,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.525915333333334</v>
+        <v>25.672264</v>
       </c>
       <c r="H10">
-        <v>10.577746</v>
+        <v>77.016792</v>
       </c>
       <c r="I10">
-        <v>0.04042593123510095</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="J10">
-        <v>0.04042593123510094</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>3.958350666666666</v>
+        <v>0.138766</v>
       </c>
       <c r="N10">
-        <v>11.875052</v>
+        <v>0.416298</v>
       </c>
       <c r="O10">
-        <v>0.9632703969686844</v>
+        <v>0.01356925767068476</v>
       </c>
       <c r="P10">
-        <v>0.9632703969686844</v>
+        <v>0.01356925767068476</v>
       </c>
       <c r="Q10">
-        <v>13.95680931031022</v>
+        <v>3.562437386224</v>
       </c>
       <c r="R10">
-        <v>125.611283792792</v>
+        <v>32.061936476016</v>
       </c>
       <c r="S10">
-        <v>0.03894110282866443</v>
+        <v>0.003148589792888038</v>
       </c>
       <c r="T10">
-        <v>0.03894110282866442</v>
+        <v>0.003148589792888038</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.192675</v>
+        <v>25.672264</v>
       </c>
       <c r="H11">
-        <v>3.578025</v>
+        <v>77.016792</v>
       </c>
       <c r="I11">
-        <v>0.0136744626508778</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="J11">
-        <v>0.0136744626508778</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1113,33 +1113,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.09677100000000001</v>
+        <v>0.05416133333333333</v>
       </c>
       <c r="N11">
-        <v>0.290313</v>
+        <v>0.162484</v>
       </c>
       <c r="O11">
-        <v>0.02354936372111632</v>
+        <v>0.00529617548814441</v>
       </c>
       <c r="P11">
-        <v>0.02354936372111632</v>
+        <v>0.005296175488144411</v>
       </c>
       <c r="Q11">
-        <v>0.115416352425</v>
+        <v>1.390444047925333</v>
       </c>
       <c r="R11">
-        <v>1.038747171825</v>
+        <v>12.513996431328</v>
       </c>
       <c r="S11">
-        <v>0.0003220248946563418</v>
+        <v>0.001228916458660911</v>
       </c>
       <c r="T11">
-        <v>0.0003220248946563417</v>
+        <v>0.001228916458660911</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,51 +1157,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.192675</v>
+        <v>25.672264</v>
       </c>
       <c r="H12">
-        <v>3.578025</v>
+        <v>77.016792</v>
       </c>
       <c r="I12">
-        <v>0.0136744626508778</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="J12">
-        <v>0.0136744626508778</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.05416133333333333</v>
+        <v>10.002366</v>
       </c>
       <c r="N12">
-        <v>0.162484</v>
+        <v>30.007098</v>
       </c>
       <c r="O12">
-        <v>0.01318023931019921</v>
+        <v>0.9780831152479456</v>
       </c>
       <c r="P12">
-        <v>0.01318023931019921</v>
+        <v>0.9780831152479456</v>
       </c>
       <c r="Q12">
-        <v>0.06459686823333334</v>
+        <v>256.783380576624</v>
       </c>
       <c r="R12">
-        <v>0.5813718141000001</v>
+        <v>2311.050425189616</v>
       </c>
       <c r="S12">
-        <v>0.0001802326901769505</v>
+        <v>0.2269529098794399</v>
       </c>
       <c r="T12">
-        <v>0.0001802326901769504</v>
+        <v>0.2269529098794399</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,55 +1210,303 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>25.672264</v>
+      </c>
+      <c r="H13">
+        <v>77.016792</v>
+      </c>
+      <c r="I13">
+        <v>0.2320384702908474</v>
+      </c>
+      <c r="J13">
+        <v>0.2320384702908474</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.03120566666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.09361700000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.003051451593225274</v>
+      </c>
+      <c r="P13">
+        <v>0.003051451593225274</v>
+      </c>
+      <c r="Q13">
+        <v>0.8011201129626667</v>
+      </c>
+      <c r="R13">
+        <v>7.210081016664</v>
+      </c>
+      <c r="S13">
+        <v>0.0007080541598585617</v>
+      </c>
+      <c r="T13">
+        <v>0.0007080541598585617</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.608999666666667</v>
+      </c>
+      <c r="H14">
+        <v>4.826999</v>
+      </c>
+      <c r="I14">
+        <v>0.01454292544482312</v>
+      </c>
+      <c r="J14">
+        <v>0.01454292544482312</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.138766</v>
+      </c>
+      <c r="N14">
+        <v>0.416298</v>
+      </c>
+      <c r="O14">
+        <v>0.01356925767068476</v>
+      </c>
+      <c r="P14">
+        <v>0.01356925767068476</v>
+      </c>
+      <c r="Q14">
+        <v>0.2232744477446666</v>
+      </c>
+      <c r="R14">
+        <v>2.009470029702</v>
+      </c>
+      <c r="S14">
+        <v>0.0001973367026463627</v>
+      </c>
+      <c r="T14">
+        <v>0.0001973367026463627</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.608999666666667</v>
+      </c>
+      <c r="H15">
+        <v>4.826999</v>
+      </c>
+      <c r="I15">
+        <v>0.01454292544482312</v>
+      </c>
+      <c r="J15">
+        <v>0.01454292544482312</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.05416133333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.162484</v>
+      </c>
+      <c r="O15">
+        <v>0.00529617548814441</v>
+      </c>
+      <c r="P15">
+        <v>0.005296175488144411</v>
+      </c>
+      <c r="Q15">
+        <v>0.08714556727955555</v>
+      </c>
+      <c r="R15">
+        <v>0.7843101055159999</v>
+      </c>
+      <c r="S15">
+        <v>7.702188526678388E-05</v>
+      </c>
+      <c r="T15">
+        <v>7.702188526678389E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.192675</v>
-      </c>
-      <c r="H13">
-        <v>3.578025</v>
-      </c>
-      <c r="I13">
-        <v>0.0136744626508778</v>
-      </c>
-      <c r="J13">
-        <v>0.0136744626508778</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>3.958350666666666</v>
-      </c>
-      <c r="N13">
-        <v>11.875052</v>
-      </c>
-      <c r="O13">
-        <v>0.9632703969686844</v>
-      </c>
-      <c r="P13">
-        <v>0.9632703969686844</v>
-      </c>
-      <c r="Q13">
-        <v>4.721025881366667</v>
-      </c>
-      <c r="R13">
-        <v>42.4892329323</v>
-      </c>
-      <c r="S13">
-        <v>0.01317220506604451</v>
-      </c>
-      <c r="T13">
-        <v>0.01317220506604451</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.608999666666667</v>
+      </c>
+      <c r="H16">
+        <v>4.826999</v>
+      </c>
+      <c r="I16">
+        <v>0.01454292544482312</v>
+      </c>
+      <c r="J16">
+        <v>0.01454292544482312</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>10.002366</v>
+      </c>
+      <c r="N16">
+        <v>30.007098</v>
+      </c>
+      <c r="O16">
+        <v>0.9780831152479456</v>
+      </c>
+      <c r="P16">
+        <v>0.9780831152479456</v>
+      </c>
+      <c r="Q16">
+        <v>16.093803559878</v>
+      </c>
+      <c r="R16">
+        <v>144.844232038902</v>
+      </c>
+      <c r="S16">
+        <v>0.01422418982389122</v>
+      </c>
+      <c r="T16">
+        <v>0.01422418982389122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.608999666666667</v>
+      </c>
+      <c r="H17">
+        <v>4.826999</v>
+      </c>
+      <c r="I17">
+        <v>0.01454292544482312</v>
+      </c>
+      <c r="J17">
+        <v>0.01454292544482312</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.03120566666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.09361700000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.003051451593225274</v>
+      </c>
+      <c r="P17">
+        <v>0.003051451593225274</v>
+      </c>
+      <c r="Q17">
+        <v>0.05020990726477778</v>
+      </c>
+      <c r="R17">
+        <v>0.451889165383</v>
+      </c>
+      <c r="S17">
+        <v>4.43770330187619E-05</v>
+      </c>
+      <c r="T17">
+        <v>4.43770330187619E-05</v>
       </c>
     </row>
   </sheetData>
